--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783325.962781964</v>
+        <v>1781073.883070756</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482832</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>147.4419578726627</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>244.9774942274437</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.0162480906818</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>95.44336989065499</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>162.4154839174017</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>301.9029411358563</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>92.4209234259873</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.28185552386282</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.81729813874395</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>158.9570581017793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819392</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507403</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708016</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583137</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>205.8964840581836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.08971311158571</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>146.0663306291632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.476813167026</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>682.1252779972657</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T4" t="n">
-        <v>682.1252779972657</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U4" t="n">
-        <v>682.1252779972657</v>
+        <v>541.953681701356</v>
       </c>
       <c r="V4" t="n">
-        <v>682.1252779972657</v>
+        <v>541.953681701356</v>
       </c>
       <c r="W4" t="n">
-        <v>682.1252779972657</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>682.1252779972657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.1252779972657</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>756.8309614571731</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V7" t="n">
-        <v>502.1464732512862</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="X7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2098.941407629259</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1729.978890688847</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1371.713192082097</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>985.9249394838523</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>574.9390346942448</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>159.8665845392413</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879445</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600376</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477018</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653087</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673984</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673984</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181842</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724333</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518446</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481485</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.4663485834678</v>
       </c>
       <c r="Y28" t="n">
-        <v>779.6143379232838</v>
+        <v>963.4663485834678</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,22 +6476,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.409607331288</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.992437294328</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.0028863963103</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556931</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7026,13 +7026,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,13 +7725,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.289762996848538</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788757</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194052</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823553</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683093044</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.27114962944304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.2411592656444</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>68.52575990662665</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762431</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26448,7 +26448,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346471</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
+        <v>352672.5099929455</v>
+      </c>
+      <c r="D6" t="n">
         <v>352672.5099929457</v>
       </c>
-      <c r="D6" t="n">
-        <v>352672.5099929459</v>
-      </c>
       <c r="E6" t="n">
-        <v>103462.2671176238</v>
+        <v>103427.5291921884</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249794</v>
+        <v>428839.990999544</v>
       </c>
       <c r="G6" t="n">
-        <v>428874.7289249799</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="H6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="I6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="J6" t="n">
-        <v>211343.5265277022</v>
+        <v>211308.7886022665</v>
       </c>
       <c r="K6" t="n">
-        <v>428874.7289249797</v>
+        <v>428839.9909995435</v>
       </c>
       <c r="L6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="M6" t="n">
-        <v>343819.7009894677</v>
+        <v>343784.963064032</v>
       </c>
       <c r="N6" t="n">
-        <v>428874.7289249799</v>
+        <v>428839.9909995435</v>
       </c>
       <c r="O6" t="n">
-        <v>428874.7289249793</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="P6" t="n">
-        <v>428874.7289249793</v>
+        <v>428839.9909995438</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.32706745877917</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>41.54550410914732</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>84.3886102912823</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>123.7963542882112</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>80.83090052762424</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>202.1868409613332</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>86.47315939045797</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>23.53512227109414</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
